--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_109.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_109.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d75705-Reviews-Clarion_Hotel_Anaheim_Resort-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>924</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1041</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Clarion-Hotel-Anaheim-Resort.h3893.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_109.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_109.xlsx
@@ -13205,7 +13205,7 @@
         <v>3926</v>
       </c>
       <c r="B3" t="n">
-        <v>130703</v>
+        <v>161446</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -13266,7 +13266,7 @@
         <v>3926</v>
       </c>
       <c r="B4" t="n">
-        <v>130704</v>
+        <v>161447</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -13327,7 +13327,7 @@
         <v>3926</v>
       </c>
       <c r="B5" t="n">
-        <v>130705</v>
+        <v>161448</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -13388,7 +13388,7 @@
         <v>3926</v>
       </c>
       <c r="B6" t="n">
-        <v>130706</v>
+        <v>161449</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -13455,7 +13455,7 @@
         <v>3926</v>
       </c>
       <c r="B7" t="n">
-        <v>130707</v>
+        <v>161450</v>
       </c>
       <c r="C7" t="s">
         <v>84</v>
@@ -13520,7 +13520,7 @@
         <v>3926</v>
       </c>
       <c r="B8" t="n">
-        <v>130708</v>
+        <v>161451</v>
       </c>
       <c r="C8" t="s">
         <v>91</v>
@@ -13699,7 +13699,7 @@
         <v>3926</v>
       </c>
       <c r="B11" t="n">
-        <v>130709</v>
+        <v>161452</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
@@ -13886,7 +13886,7 @@
         <v>3926</v>
       </c>
       <c r="B14" t="n">
-        <v>130710</v>
+        <v>161453</v>
       </c>
       <c r="C14" t="s">
         <v>137</v>
@@ -13951,7 +13951,7 @@
         <v>3926</v>
       </c>
       <c r="B15" t="n">
-        <v>130711</v>
+        <v>161454</v>
       </c>
       <c r="C15" t="s">
         <v>145</v>
@@ -14140,7 +14140,7 @@
         <v>3926</v>
       </c>
       <c r="B18" t="n">
-        <v>130712</v>
+        <v>161455</v>
       </c>
       <c r="C18" t="s">
         <v>167</v>
@@ -14349,7 +14349,7 @@
         <v>3926</v>
       </c>
       <c r="B21" t="n">
-        <v>130713</v>
+        <v>161456</v>
       </c>
       <c r="C21" t="s">
         <v>190</v>
@@ -14414,7 +14414,7 @@
         <v>3926</v>
       </c>
       <c r="B22" t="n">
-        <v>130714</v>
+        <v>161457</v>
       </c>
       <c r="C22" t="s">
         <v>200</v>
@@ -14489,7 +14489,7 @@
         <v>3926</v>
       </c>
       <c r="B23" t="n">
-        <v>130715</v>
+        <v>161458</v>
       </c>
       <c r="C23" t="s">
         <v>209</v>
@@ -14564,7 +14564,7 @@
         <v>3926</v>
       </c>
       <c r="B24" t="n">
-        <v>130716</v>
+        <v>161459</v>
       </c>
       <c r="C24" t="s">
         <v>217</v>
@@ -14639,7 +14639,7 @@
         <v>3926</v>
       </c>
       <c r="B25" t="n">
-        <v>130717</v>
+        <v>161460</v>
       </c>
       <c r="C25" t="s">
         <v>224</v>
@@ -14789,7 +14789,7 @@
         <v>3926</v>
       </c>
       <c r="B27" t="n">
-        <v>130718</v>
+        <v>161461</v>
       </c>
       <c r="C27" t="s">
         <v>238</v>
@@ -14937,7 +14937,7 @@
         <v>3926</v>
       </c>
       <c r="B29" t="n">
-        <v>130719</v>
+        <v>161462</v>
       </c>
       <c r="C29" t="s">
         <v>252</v>
@@ -15012,7 +15012,7 @@
         <v>3926</v>
       </c>
       <c r="B30" t="n">
-        <v>130720</v>
+        <v>161463</v>
       </c>
       <c r="C30" t="s">
         <v>261</v>
@@ -15087,7 +15087,7 @@
         <v>3926</v>
       </c>
       <c r="B31" t="n">
-        <v>130721</v>
+        <v>161464</v>
       </c>
       <c r="C31" t="s">
         <v>268</v>
@@ -15162,7 +15162,7 @@
         <v>3926</v>
       </c>
       <c r="B32" t="n">
-        <v>130722</v>
+        <v>161465</v>
       </c>
       <c r="C32" t="s">
         <v>275</v>
@@ -15233,7 +15233,7 @@
         <v>3926</v>
       </c>
       <c r="B33" t="n">
-        <v>130723</v>
+        <v>161466</v>
       </c>
       <c r="C33" t="s">
         <v>281</v>
@@ -15298,7 +15298,7 @@
         <v>3926</v>
       </c>
       <c r="B34" t="n">
-        <v>130724</v>
+        <v>161467</v>
       </c>
       <c r="C34" t="s">
         <v>288</v>
@@ -15369,7 +15369,7 @@
         <v>3926</v>
       </c>
       <c r="B35" t="n">
-        <v>130725</v>
+        <v>161468</v>
       </c>
       <c r="C35" t="s">
         <v>295</v>
@@ -15440,7 +15440,7 @@
         <v>3926</v>
       </c>
       <c r="B36" t="n">
-        <v>130726</v>
+        <v>161469</v>
       </c>
       <c r="C36" t="s">
         <v>300</v>
@@ -15511,7 +15511,7 @@
         <v>3926</v>
       </c>
       <c r="B37" t="n">
-        <v>130727</v>
+        <v>161470</v>
       </c>
       <c r="C37" t="s">
         <v>305</v>
@@ -15578,7 +15578,7 @@
         <v>3926</v>
       </c>
       <c r="B38" t="n">
-        <v>130728</v>
+        <v>161471</v>
       </c>
       <c r="C38" t="s">
         <v>312</v>
@@ -15653,7 +15653,7 @@
         <v>3926</v>
       </c>
       <c r="B39" t="n">
-        <v>130729</v>
+        <v>161472</v>
       </c>
       <c r="C39" t="s">
         <v>321</v>
@@ -15724,7 +15724,7 @@
         <v>3926</v>
       </c>
       <c r="B40" t="n">
-        <v>130730</v>
+        <v>161473</v>
       </c>
       <c r="C40" t="s">
         <v>327</v>
@@ -15795,7 +15795,7 @@
         <v>3926</v>
       </c>
       <c r="B41" t="n">
-        <v>130731</v>
+        <v>161474</v>
       </c>
       <c r="C41" t="s">
         <v>333</v>
@@ -15864,7 +15864,7 @@
         <v>3926</v>
       </c>
       <c r="B42" t="n">
-        <v>130732</v>
+        <v>161475</v>
       </c>
       <c r="C42" t="s">
         <v>341</v>
@@ -15935,7 +15935,7 @@
         <v>3926</v>
       </c>
       <c r="B43" t="n">
-        <v>130733</v>
+        <v>161476</v>
       </c>
       <c r="C43" t="s">
         <v>346</v>
@@ -16006,7 +16006,7 @@
         <v>3926</v>
       </c>
       <c r="B44" t="n">
-        <v>130734</v>
+        <v>161477</v>
       </c>
       <c r="C44" t="s">
         <v>352</v>
@@ -16219,7 +16219,7 @@
         <v>3926</v>
       </c>
       <c r="B47" t="n">
-        <v>130735</v>
+        <v>161478</v>
       </c>
       <c r="C47" t="s">
         <v>374</v>
@@ -16284,7 +16284,7 @@
         <v>3926</v>
       </c>
       <c r="B48" t="n">
-        <v>130736</v>
+        <v>161479</v>
       </c>
       <c r="C48" t="s">
         <v>381</v>
@@ -16349,7 +16349,7 @@
         <v>3926</v>
       </c>
       <c r="B49" t="n">
-        <v>130737</v>
+        <v>161480</v>
       </c>
       <c r="C49" t="s">
         <v>388</v>
@@ -16420,7 +16420,7 @@
         <v>3926</v>
       </c>
       <c r="B50" t="n">
-        <v>130738</v>
+        <v>161481</v>
       </c>
       <c r="C50" t="s">
         <v>393</v>
@@ -16495,7 +16495,7 @@
         <v>3926</v>
       </c>
       <c r="B51" t="n">
-        <v>130739</v>
+        <v>161482</v>
       </c>
       <c r="C51" t="s">
         <v>402</v>
@@ -16570,7 +16570,7 @@
         <v>3926</v>
       </c>
       <c r="B52" t="n">
-        <v>130740</v>
+        <v>161483</v>
       </c>
       <c r="C52" t="s">
         <v>409</v>
@@ -16641,7 +16641,7 @@
         <v>3926</v>
       </c>
       <c r="B53" t="n">
-        <v>130741</v>
+        <v>161484</v>
       </c>
       <c r="C53" t="s">
         <v>414</v>
@@ -16712,7 +16712,7 @@
         <v>3926</v>
       </c>
       <c r="B54" t="n">
-        <v>130742</v>
+        <v>161485</v>
       </c>
       <c r="C54" t="s">
         <v>420</v>
@@ -16783,7 +16783,7 @@
         <v>3926</v>
       </c>
       <c r="B55" t="n">
-        <v>130743</v>
+        <v>161486</v>
       </c>
       <c r="C55" t="s">
         <v>426</v>
@@ -16854,7 +16854,7 @@
         <v>3926</v>
       </c>
       <c r="B56" t="n">
-        <v>130744</v>
+        <v>161487</v>
       </c>
       <c r="C56" t="s">
         <v>432</v>
@@ -16990,7 +16990,7 @@
         <v>3926</v>
       </c>
       <c r="B58" t="n">
-        <v>130745</v>
+        <v>161488</v>
       </c>
       <c r="C58" t="s">
         <v>446</v>
@@ -17061,7 +17061,7 @@
         <v>3926</v>
       </c>
       <c r="B59" t="n">
-        <v>130746</v>
+        <v>161489</v>
       </c>
       <c r="C59" t="s">
         <v>452</v>
@@ -17126,7 +17126,7 @@
         <v>3926</v>
       </c>
       <c r="B60" t="n">
-        <v>130747</v>
+        <v>161490</v>
       </c>
       <c r="C60" t="s">
         <v>459</v>
@@ -17195,7 +17195,7 @@
         <v>3926</v>
       </c>
       <c r="B61" t="n">
-        <v>130748</v>
+        <v>161491</v>
       </c>
       <c r="C61" t="s">
         <v>466</v>
@@ -17256,7 +17256,7 @@
         <v>3926</v>
       </c>
       <c r="B62" t="n">
-        <v>130749</v>
+        <v>161492</v>
       </c>
       <c r="C62" t="s">
         <v>473</v>
@@ -17321,7 +17321,7 @@
         <v>3926</v>
       </c>
       <c r="B63" t="n">
-        <v>130750</v>
+        <v>161493</v>
       </c>
       <c r="C63" t="s">
         <v>479</v>
@@ -17382,7 +17382,7 @@
         <v>3926</v>
       </c>
       <c r="B64" t="n">
-        <v>130751</v>
+        <v>161494</v>
       </c>
       <c r="C64" t="s">
         <v>485</v>
@@ -17453,7 +17453,7 @@
         <v>3926</v>
       </c>
       <c r="B65" t="n">
-        <v>130752</v>
+        <v>161495</v>
       </c>
       <c r="C65" t="s">
         <v>495</v>
@@ -17514,7 +17514,7 @@
         <v>3926</v>
       </c>
       <c r="B66" t="n">
-        <v>130753</v>
+        <v>161496</v>
       </c>
       <c r="C66" t="s">
         <v>502</v>
@@ -17642,7 +17642,7 @@
         <v>3926</v>
       </c>
       <c r="B68" t="n">
-        <v>130754</v>
+        <v>161497</v>
       </c>
       <c r="C68" t="s">
         <v>515</v>
@@ -17831,7 +17831,7 @@
         <v>3926</v>
       </c>
       <c r="B71" t="n">
-        <v>130755</v>
+        <v>161498</v>
       </c>
       <c r="C71" t="s">
         <v>536</v>
@@ -17963,7 +17963,7 @@
         <v>3926</v>
       </c>
       <c r="B73" t="n">
-        <v>130756</v>
+        <v>161499</v>
       </c>
       <c r="C73" t="s">
         <v>550</v>
@@ -18142,7 +18142,7 @@
         <v>3926</v>
       </c>
       <c r="B76" t="n">
-        <v>130757</v>
+        <v>161500</v>
       </c>
       <c r="C76" t="s">
         <v>569</v>
@@ -18209,7 +18209,7 @@
         <v>3926</v>
       </c>
       <c r="B77" t="n">
-        <v>130758</v>
+        <v>161501</v>
       </c>
       <c r="C77" t="s">
         <v>576</v>
@@ -18270,7 +18270,7 @@
         <v>3926</v>
       </c>
       <c r="B78" t="n">
-        <v>130759</v>
+        <v>161502</v>
       </c>
       <c r="C78" t="s">
         <v>582</v>
@@ -18402,7 +18402,7 @@
         <v>3926</v>
       </c>
       <c r="B80" t="n">
-        <v>130760</v>
+        <v>161503</v>
       </c>
       <c r="C80" t="s">
         <v>596</v>
@@ -18463,7 +18463,7 @@
         <v>3926</v>
       </c>
       <c r="B81" t="n">
-        <v>130761</v>
+        <v>161504</v>
       </c>
       <c r="C81" t="s">
         <v>602</v>
@@ -18530,7 +18530,7 @@
         <v>3926</v>
       </c>
       <c r="B82" t="n">
-        <v>130762</v>
+        <v>161505</v>
       </c>
       <c r="C82" t="s">
         <v>608</v>
@@ -18591,7 +18591,7 @@
         <v>3926</v>
       </c>
       <c r="B83" t="n">
-        <v>130763</v>
+        <v>161506</v>
       </c>
       <c r="C83" t="s">
         <v>615</v>
@@ -18658,7 +18658,7 @@
         <v>3926</v>
       </c>
       <c r="B84" t="n">
-        <v>130764</v>
+        <v>161507</v>
       </c>
       <c r="C84" t="s">
         <v>623</v>
@@ -18790,7 +18790,7 @@
         <v>3926</v>
       </c>
       <c r="B86" t="n">
-        <v>130765</v>
+        <v>161508</v>
       </c>
       <c r="C86" t="s">
         <v>638</v>
@@ -18861,7 +18861,7 @@
         <v>3926</v>
       </c>
       <c r="B87" t="n">
-        <v>130766</v>
+        <v>161509</v>
       </c>
       <c r="C87" t="s">
         <v>647</v>
@@ -18926,7 +18926,7 @@
         <v>3926</v>
       </c>
       <c r="B88" t="n">
-        <v>130767</v>
+        <v>161510</v>
       </c>
       <c r="C88" t="s">
         <v>657</v>
@@ -19131,7 +19131,7 @@
         <v>3926</v>
       </c>
       <c r="B91" t="n">
-        <v>130768</v>
+        <v>161511</v>
       </c>
       <c r="C91" t="s">
         <v>684</v>
@@ -19200,7 +19200,7 @@
         <v>3926</v>
       </c>
       <c r="B92" t="n">
-        <v>130769</v>
+        <v>161512</v>
       </c>
       <c r="C92" t="s">
         <v>692</v>
@@ -19271,7 +19271,7 @@
         <v>3926</v>
       </c>
       <c r="B93" t="n">
-        <v>130770</v>
+        <v>161513</v>
       </c>
       <c r="C93" t="s">
         <v>700</v>
@@ -19336,7 +19336,7 @@
         <v>3926</v>
       </c>
       <c r="B94" t="n">
-        <v>130771</v>
+        <v>161514</v>
       </c>
       <c r="C94" t="s">
         <v>706</v>
@@ -19407,7 +19407,7 @@
         <v>3926</v>
       </c>
       <c r="B95" t="n">
-        <v>130772</v>
+        <v>161515</v>
       </c>
       <c r="C95" t="s">
         <v>715</v>
@@ -19539,7 +19539,7 @@
         <v>3926</v>
       </c>
       <c r="B97" t="n">
-        <v>130773</v>
+        <v>161516</v>
       </c>
       <c r="C97" t="s">
         <v>734</v>
@@ -19604,7 +19604,7 @@
         <v>3926</v>
       </c>
       <c r="B98" t="n">
-        <v>130774</v>
+        <v>161517</v>
       </c>
       <c r="C98" t="s">
         <v>743</v>
@@ -19669,7 +19669,7 @@
         <v>3926</v>
       </c>
       <c r="B99" t="n">
-        <v>130775</v>
+        <v>161518</v>
       </c>
       <c r="C99" t="s">
         <v>752</v>
@@ -19799,7 +19799,7 @@
         <v>3926</v>
       </c>
       <c r="B101" t="n">
-        <v>130776</v>
+        <v>161519</v>
       </c>
       <c r="C101" t="s">
         <v>766</v>
@@ -20071,7 +20071,7 @@
         <v>3926</v>
       </c>
       <c r="B105" t="n">
-        <v>130777</v>
+        <v>161520</v>
       </c>
       <c r="C105" t="s">
         <v>797</v>
@@ -20140,7 +20140,7 @@
         <v>3926</v>
       </c>
       <c r="B106" t="n">
-        <v>130778</v>
+        <v>161521</v>
       </c>
       <c r="C106" t="s">
         <v>806</v>
@@ -20270,7 +20270,7 @@
         <v>3926</v>
       </c>
       <c r="B108" t="n">
-        <v>130779</v>
+        <v>161522</v>
       </c>
       <c r="C108" t="s">
         <v>823</v>
@@ -20335,7 +20335,7 @@
         <v>3926</v>
       </c>
       <c r="B109" t="n">
-        <v>130780</v>
+        <v>161523</v>
       </c>
       <c r="C109" t="s">
         <v>830</v>
@@ -20477,7 +20477,7 @@
         <v>3926</v>
       </c>
       <c r="B111" t="n">
-        <v>130781</v>
+        <v>161524</v>
       </c>
       <c r="C111" t="s">
         <v>846</v>
@@ -20613,7 +20613,7 @@
         <v>3926</v>
       </c>
       <c r="B113" t="n">
-        <v>130782</v>
+        <v>161525</v>
       </c>
       <c r="C113" t="s">
         <v>860</v>
@@ -20678,7 +20678,7 @@
         <v>3926</v>
       </c>
       <c r="B114" t="n">
-        <v>130783</v>
+        <v>161526</v>
       </c>
       <c r="C114" t="s">
         <v>867</v>
@@ -20810,7 +20810,7 @@
         <v>3926</v>
       </c>
       <c r="B116" t="n">
-        <v>130784</v>
+        <v>161527</v>
       </c>
       <c r="C116" t="s">
         <v>881</v>
@@ -20877,7 +20877,7 @@
         <v>3926</v>
       </c>
       <c r="B117" t="n">
-        <v>130785</v>
+        <v>161528</v>
       </c>
       <c r="C117" t="s">
         <v>888</v>
@@ -21009,7 +21009,7 @@
         <v>3926</v>
       </c>
       <c r="B119" t="n">
-        <v>130786</v>
+        <v>161529</v>
       </c>
       <c r="C119" t="s">
         <v>903</v>
@@ -21210,7 +21210,7 @@
         <v>3926</v>
       </c>
       <c r="B122" t="n">
-        <v>130787</v>
+        <v>161530</v>
       </c>
       <c r="C122" t="s">
         <v>923</v>
@@ -21348,7 +21348,7 @@
         <v>3926</v>
       </c>
       <c r="B124" t="n">
-        <v>130788</v>
+        <v>161531</v>
       </c>
       <c r="C124" t="s">
         <v>938</v>
@@ -21488,7 +21488,7 @@
         <v>3926</v>
       </c>
       <c r="B126" t="n">
-        <v>130789</v>
+        <v>161532</v>
       </c>
       <c r="C126" t="s">
         <v>954</v>
@@ -21622,7 +21622,7 @@
         <v>3926</v>
       </c>
       <c r="B128" t="n">
-        <v>130790</v>
+        <v>161533</v>
       </c>
       <c r="C128" t="s">
         <v>969</v>
@@ -21762,7 +21762,7 @@
         <v>3926</v>
       </c>
       <c r="B130" t="n">
-        <v>130791</v>
+        <v>161534</v>
       </c>
       <c r="C130" t="s">
         <v>987</v>
@@ -21904,7 +21904,7 @@
         <v>3926</v>
       </c>
       <c r="B132" t="n">
-        <v>130792</v>
+        <v>161535</v>
       </c>
       <c r="C132" t="s">
         <v>1003</v>
@@ -22101,7 +22101,7 @@
         <v>3926</v>
       </c>
       <c r="B135" t="n">
-        <v>130793</v>
+        <v>161536</v>
       </c>
       <c r="C135" t="s">
         <v>1027</v>
@@ -22170,7 +22170,7 @@
         <v>3926</v>
       </c>
       <c r="B136" t="n">
-        <v>130794</v>
+        <v>161537</v>
       </c>
       <c r="C136" t="s">
         <v>1036</v>
@@ -22241,7 +22241,7 @@
         <v>3926</v>
       </c>
       <c r="B137" t="n">
-        <v>130795</v>
+        <v>161538</v>
       </c>
       <c r="C137" t="s">
         <v>1043</v>
@@ -22306,7 +22306,7 @@
         <v>3926</v>
       </c>
       <c r="B138" t="n">
-        <v>130796</v>
+        <v>161539</v>
       </c>
       <c r="C138" t="s">
         <v>1050</v>
@@ -22434,7 +22434,7 @@
         <v>3926</v>
       </c>
       <c r="B140" t="n">
-        <v>130797</v>
+        <v>161540</v>
       </c>
       <c r="C140" t="s">
         <v>1062</v>
@@ -22505,7 +22505,7 @@
         <v>3926</v>
       </c>
       <c r="B141" t="n">
-        <v>130798</v>
+        <v>161541</v>
       </c>
       <c r="C141" t="s">
         <v>1071</v>
@@ -22576,7 +22576,7 @@
         <v>3926</v>
       </c>
       <c r="B142" t="n">
-        <v>130799</v>
+        <v>161542</v>
       </c>
       <c r="C142" t="s">
         <v>1080</v>
@@ -22712,7 +22712,7 @@
         <v>3926</v>
       </c>
       <c r="B144" t="n">
-        <v>130800</v>
+        <v>161543</v>
       </c>
       <c r="C144" t="s">
         <v>1096</v>
@@ -22777,7 +22777,7 @@
         <v>3926</v>
       </c>
       <c r="B145" t="n">
-        <v>130801</v>
+        <v>161544</v>
       </c>
       <c r="C145" t="s">
         <v>1104</v>
@@ -22838,7 +22838,7 @@
         <v>3926</v>
       </c>
       <c r="B146" t="n">
-        <v>130802</v>
+        <v>161545</v>
       </c>
       <c r="C146" t="s">
         <v>1111</v>
@@ -22903,7 +22903,7 @@
         <v>3926</v>
       </c>
       <c r="B147" t="n">
-        <v>130803</v>
+        <v>161546</v>
       </c>
       <c r="C147" t="s">
         <v>1117</v>
@@ -22968,7 +22968,7 @@
         <v>3926</v>
       </c>
       <c r="B148" t="n">
-        <v>130804</v>
+        <v>161547</v>
       </c>
       <c r="C148" t="s">
         <v>1124</v>
@@ -23029,7 +23029,7 @@
         <v>3926</v>
       </c>
       <c r="B149" t="n">
-        <v>130805</v>
+        <v>161548</v>
       </c>
       <c r="C149" t="s">
         <v>1129</v>
@@ -23094,7 +23094,7 @@
         <v>3926</v>
       </c>
       <c r="B150" t="n">
-        <v>130806</v>
+        <v>161549</v>
       </c>
       <c r="C150" t="s">
         <v>1138</v>
@@ -23161,7 +23161,7 @@
         <v>3926</v>
       </c>
       <c r="B151" t="n">
-        <v>130807</v>
+        <v>161550</v>
       </c>
       <c r="C151" t="s">
         <v>1144</v>
@@ -23297,7 +23297,7 @@
         <v>3926</v>
       </c>
       <c r="B153" t="n">
-        <v>130808</v>
+        <v>161551</v>
       </c>
       <c r="C153" t="s">
         <v>1159</v>
@@ -23423,7 +23423,7 @@
         <v>3926</v>
       </c>
       <c r="B155" t="n">
-        <v>130809</v>
+        <v>161552</v>
       </c>
       <c r="C155" t="s">
         <v>1172</v>
@@ -23488,7 +23488,7 @@
         <v>3926</v>
       </c>
       <c r="B156" t="n">
-        <v>130810</v>
+        <v>161553</v>
       </c>
       <c r="C156" t="s">
         <v>1179</v>
@@ -23626,7 +23626,7 @@
         <v>3926</v>
       </c>
       <c r="B158" t="n">
-        <v>130811</v>
+        <v>161554</v>
       </c>
       <c r="C158" t="s">
         <v>1196</v>
@@ -23752,7 +23752,7 @@
         <v>3926</v>
       </c>
       <c r="B160" t="n">
-        <v>130812</v>
+        <v>161555</v>
       </c>
       <c r="C160" t="s">
         <v>1211</v>
@@ -23813,7 +23813,7 @@
         <v>3926</v>
       </c>
       <c r="B161" t="n">
-        <v>130813</v>
+        <v>161556</v>
       </c>
       <c r="C161" t="s">
         <v>1218</v>
@@ -23939,7 +23939,7 @@
         <v>3926</v>
       </c>
       <c r="B163" t="n">
-        <v>130814</v>
+        <v>161557</v>
       </c>
       <c r="C163" t="s">
         <v>1232</v>
@@ -24077,7 +24077,7 @@
         <v>3926</v>
       </c>
       <c r="B165" t="n">
-        <v>130815</v>
+        <v>161558</v>
       </c>
       <c r="C165" t="s">
         <v>1249</v>
@@ -24268,7 +24268,7 @@
         <v>3926</v>
       </c>
       <c r="B168" t="n">
-        <v>130816</v>
+        <v>161559</v>
       </c>
       <c r="C168" t="s">
         <v>1268</v>
@@ -24325,7 +24325,7 @@
         <v>3926</v>
       </c>
       <c r="B169" t="n">
-        <v>130817</v>
+        <v>161560</v>
       </c>
       <c r="C169" t="s">
         <v>1275</v>
@@ -24451,7 +24451,7 @@
         <v>3926</v>
       </c>
       <c r="B171" t="n">
-        <v>130818</v>
+        <v>161561</v>
       </c>
       <c r="C171" t="s">
         <v>1288</v>
@@ -24699,7 +24699,7 @@
         <v>3926</v>
       </c>
       <c r="B175" t="n">
-        <v>130819</v>
+        <v>161562</v>
       </c>
       <c r="C175" t="s">
         <v>1312</v>
@@ -24825,7 +24825,7 @@
         <v>3926</v>
       </c>
       <c r="B177" t="n">
-        <v>130820</v>
+        <v>161563</v>
       </c>
       <c r="C177" t="s">
         <v>1325</v>
@@ -24953,7 +24953,7 @@
         <v>3926</v>
       </c>
       <c r="B179" t="n">
-        <v>130821</v>
+        <v>161564</v>
       </c>
       <c r="C179" t="s">
         <v>1338</v>
@@ -25014,7 +25014,7 @@
         <v>3926</v>
       </c>
       <c r="B180" t="n">
-        <v>130822</v>
+        <v>161565</v>
       </c>
       <c r="C180" t="s">
         <v>1344</v>
@@ -25148,7 +25148,7 @@
         <v>3926</v>
       </c>
       <c r="B182" t="n">
-        <v>130823</v>
+        <v>161566</v>
       </c>
       <c r="C182" t="s">
         <v>1356</v>
@@ -25215,7 +25215,7 @@
         <v>3926</v>
       </c>
       <c r="B183" t="n">
-        <v>130824</v>
+        <v>161567</v>
       </c>
       <c r="C183" t="s">
         <v>1363</v>
@@ -25276,7 +25276,7 @@
         <v>3926</v>
       </c>
       <c r="B184" t="n">
-        <v>130825</v>
+        <v>161568</v>
       </c>
       <c r="C184" t="s">
         <v>1370</v>
@@ -25341,7 +25341,7 @@
         <v>3926</v>
       </c>
       <c r="B185" t="n">
-        <v>130826</v>
+        <v>161569</v>
       </c>
       <c r="C185" t="s">
         <v>1377</v>
@@ -25473,7 +25473,7 @@
         <v>3926</v>
       </c>
       <c r="B187" t="n">
-        <v>130827</v>
+        <v>161570</v>
       </c>
       <c r="C187" t="s">
         <v>1391</v>
@@ -25534,7 +25534,7 @@
         <v>3926</v>
       </c>
       <c r="B188" t="n">
-        <v>130828</v>
+        <v>161571</v>
       </c>
       <c r="C188" t="s">
         <v>1396</v>
@@ -25666,7 +25666,7 @@
         <v>3926</v>
       </c>
       <c r="B190" t="n">
-        <v>130829</v>
+        <v>161572</v>
       </c>
       <c r="C190" t="s">
         <v>1411</v>
@@ -25733,7 +25733,7 @@
         <v>3926</v>
       </c>
       <c r="B191" t="n">
-        <v>130830</v>
+        <v>161573</v>
       </c>
       <c r="C191" t="s">
         <v>1419</v>
@@ -25800,7 +25800,7 @@
         <v>3926</v>
       </c>
       <c r="B192" t="n">
-        <v>130831</v>
+        <v>161574</v>
       </c>
       <c r="C192" t="s">
         <v>1426</v>
@@ -25861,7 +25861,7 @@
         <v>3926</v>
       </c>
       <c r="B193" t="n">
-        <v>130832</v>
+        <v>161575</v>
       </c>
       <c r="C193" t="s">
         <v>1432</v>
@@ -25993,7 +25993,7 @@
         <v>3926</v>
       </c>
       <c r="B195" t="n">
-        <v>130833</v>
+        <v>161576</v>
       </c>
       <c r="C195" t="s">
         <v>1446</v>
@@ -26058,7 +26058,7 @@
         <v>3926</v>
       </c>
       <c r="B196" t="n">
-        <v>130834</v>
+        <v>161577</v>
       </c>
       <c r="C196" t="s">
         <v>1452</v>
@@ -26123,7 +26123,7 @@
         <v>3926</v>
       </c>
       <c r="B197" t="n">
-        <v>130835</v>
+        <v>161578</v>
       </c>
       <c r="C197" t="s">
         <v>1458</v>
@@ -26190,7 +26190,7 @@
         <v>3926</v>
       </c>
       <c r="B198" t="n">
-        <v>130836</v>
+        <v>161579</v>
       </c>
       <c r="C198" t="s">
         <v>1464</v>
@@ -26251,7 +26251,7 @@
         <v>3926</v>
       </c>
       <c r="B199" t="n">
-        <v>130837</v>
+        <v>161580</v>
       </c>
       <c r="C199" t="s">
         <v>1471</v>
@@ -26318,7 +26318,7 @@
         <v>3926</v>
       </c>
       <c r="B200" t="n">
-        <v>130838</v>
+        <v>161581</v>
       </c>
       <c r="C200" t="s">
         <v>1477</v>
@@ -26385,7 +26385,7 @@
         <v>3926</v>
       </c>
       <c r="B201" t="n">
-        <v>130839</v>
+        <v>161582</v>
       </c>
       <c r="C201" t="s">
         <v>1484</v>
@@ -26450,7 +26450,7 @@
         <v>3926</v>
       </c>
       <c r="B202" t="n">
-        <v>130840</v>
+        <v>161583</v>
       </c>
       <c r="C202" t="s">
         <v>1491</v>
@@ -26507,7 +26507,7 @@
         <v>3926</v>
       </c>
       <c r="B203" t="n">
-        <v>130841</v>
+        <v>161584</v>
       </c>
       <c r="C203" t="s">
         <v>1496</v>
@@ -26572,7 +26572,7 @@
         <v>3926</v>
       </c>
       <c r="B204" t="n">
-        <v>130842</v>
+        <v>161585</v>
       </c>
       <c r="C204" t="s">
         <v>1503</v>
@@ -26633,7 +26633,7 @@
         <v>3926</v>
       </c>
       <c r="B205" t="n">
-        <v>130843</v>
+        <v>161586</v>
       </c>
       <c r="C205" t="s">
         <v>1508</v>
@@ -26761,7 +26761,7 @@
         <v>3926</v>
       </c>
       <c r="B207" t="n">
-        <v>130844</v>
+        <v>161587</v>
       </c>
       <c r="C207" t="s">
         <v>1520</v>
@@ -26818,7 +26818,7 @@
         <v>3926</v>
       </c>
       <c r="B208" t="n">
-        <v>130845</v>
+        <v>161588</v>
       </c>
       <c r="C208" t="s">
         <v>1527</v>
@@ -26883,7 +26883,7 @@
         <v>3926</v>
       </c>
       <c r="B209" t="n">
-        <v>130846</v>
+        <v>161589</v>
       </c>
       <c r="C209" t="s">
         <v>1534</v>
@@ -26944,7 +26944,7 @@
         <v>3926</v>
       </c>
       <c r="B210" t="n">
-        <v>130847</v>
+        <v>161590</v>
       </c>
       <c r="C210" t="s">
         <v>1541</v>
@@ -27009,7 +27009,7 @@
         <v>3926</v>
       </c>
       <c r="B211" t="n">
-        <v>130848</v>
+        <v>161591</v>
       </c>
       <c r="C211" t="s">
         <v>1548</v>
@@ -27202,7 +27202,7 @@
         <v>3926</v>
       </c>
       <c r="B214" t="n">
-        <v>130849</v>
+        <v>161592</v>
       </c>
       <c r="C214" t="s">
         <v>1566</v>
@@ -27263,7 +27263,7 @@
         <v>3926</v>
       </c>
       <c r="B215" t="n">
-        <v>130850</v>
+        <v>161593</v>
       </c>
       <c r="C215" t="s">
         <v>1573</v>
@@ -27324,7 +27324,7 @@
         <v>3926</v>
       </c>
       <c r="B216" t="n">
-        <v>130851</v>
+        <v>161594</v>
       </c>
       <c r="C216" t="s">
         <v>1580</v>
@@ -27450,7 +27450,7 @@
         <v>3926</v>
       </c>
       <c r="B218" t="n">
-        <v>130852</v>
+        <v>161595</v>
       </c>
       <c r="C218" t="s">
         <v>1591</v>
@@ -27576,7 +27576,7 @@
         <v>3926</v>
       </c>
       <c r="B220" t="n">
-        <v>130853</v>
+        <v>161596</v>
       </c>
       <c r="C220" t="s">
         <v>1604</v>
@@ -27704,7 +27704,7 @@
         <v>3926</v>
       </c>
       <c r="B222" t="n">
-        <v>130854</v>
+        <v>161597</v>
       </c>
       <c r="C222" t="s">
         <v>1618</v>
@@ -27765,7 +27765,7 @@
         <v>3926</v>
       </c>
       <c r="B223" t="n">
-        <v>130855</v>
+        <v>161598</v>
       </c>
       <c r="C223" t="s">
         <v>1624</v>
@@ -27826,7 +27826,7 @@
         <v>3926</v>
       </c>
       <c r="B224" t="n">
-        <v>130856</v>
+        <v>161599</v>
       </c>
       <c r="C224" t="s">
         <v>1629</v>
@@ -27893,7 +27893,7 @@
         <v>3926</v>
       </c>
       <c r="B225" t="n">
-        <v>130857</v>
+        <v>161600</v>
       </c>
       <c r="C225" t="s">
         <v>1636</v>
@@ -27958,7 +27958,7 @@
         <v>3926</v>
       </c>
       <c r="B226" t="n">
-        <v>130858</v>
+        <v>161601</v>
       </c>
       <c r="C226" t="s">
         <v>1642</v>
@@ -28023,7 +28023,7 @@
         <v>3926</v>
       </c>
       <c r="B227" t="n">
-        <v>130859</v>
+        <v>161602</v>
       </c>
       <c r="C227" t="s">
         <v>1649</v>
@@ -28084,7 +28084,7 @@
         <v>3926</v>
       </c>
       <c r="B228" t="n">
-        <v>130860</v>
+        <v>161603</v>
       </c>
       <c r="C228" t="s">
         <v>1656</v>
@@ -28151,7 +28151,7 @@
         <v>3926</v>
       </c>
       <c r="B229" t="n">
-        <v>130861</v>
+        <v>161604</v>
       </c>
       <c r="C229" t="s">
         <v>1663</v>
@@ -28212,7 +28212,7 @@
         <v>3926</v>
       </c>
       <c r="B230" t="n">
-        <v>130862</v>
+        <v>161605</v>
       </c>
       <c r="C230" t="s">
         <v>1670</v>
@@ -28344,7 +28344,7 @@
         <v>3926</v>
       </c>
       <c r="B232" t="n">
-        <v>130863</v>
+        <v>161606</v>
       </c>
       <c r="C232" t="s">
         <v>1682</v>
@@ -28466,7 +28466,7 @@
         <v>3926</v>
       </c>
       <c r="B234" t="n">
-        <v>130864</v>
+        <v>161607</v>
       </c>
       <c r="C234" t="s">
         <v>1695</v>
@@ -28527,7 +28527,7 @@
         <v>3926</v>
       </c>
       <c r="B235" t="n">
-        <v>130865</v>
+        <v>161608</v>
       </c>
       <c r="C235" t="s">
         <v>1700</v>
@@ -28592,7 +28592,7 @@
         <v>3926</v>
       </c>
       <c r="B236" t="n">
-        <v>130866</v>
+        <v>161609</v>
       </c>
       <c r="C236" t="s">
         <v>1707</v>
@@ -28657,7 +28657,7 @@
         <v>3926</v>
       </c>
       <c r="B237" t="n">
-        <v>130867</v>
+        <v>161610</v>
       </c>
       <c r="C237" t="s">
         <v>1713</v>
@@ -28728,7 +28728,7 @@
         <v>3926</v>
       </c>
       <c r="B238" t="n">
-        <v>130868</v>
+        <v>161611</v>
       </c>
       <c r="C238" t="s">
         <v>1718</v>
@@ -28795,7 +28795,7 @@
         <v>3926</v>
       </c>
       <c r="B239" t="n">
-        <v>130869</v>
+        <v>161612</v>
       </c>
       <c r="C239" t="s">
         <v>1724</v>
@@ -28856,7 +28856,7 @@
         <v>3926</v>
       </c>
       <c r="B240" t="n">
-        <v>130870</v>
+        <v>161613</v>
       </c>
       <c r="C240" t="s">
         <v>1731</v>
@@ -28921,7 +28921,7 @@
         <v>3926</v>
       </c>
       <c r="B241" t="n">
-        <v>130871</v>
+        <v>161614</v>
       </c>
       <c r="C241" t="s">
         <v>1739</v>
@@ -29051,7 +29051,7 @@
         <v>3926</v>
       </c>
       <c r="B243" t="n">
-        <v>130872</v>
+        <v>161615</v>
       </c>
       <c r="C243" t="s">
         <v>1752</v>
@@ -29118,7 +29118,7 @@
         <v>3926</v>
       </c>
       <c r="B244" t="n">
-        <v>130873</v>
+        <v>161616</v>
       </c>
       <c r="C244" t="s">
         <v>1758</v>
@@ -29246,7 +29246,7 @@
         <v>3926</v>
       </c>
       <c r="B246" t="n">
-        <v>130874</v>
+        <v>161617</v>
       </c>
       <c r="C246" t="s">
         <v>1772</v>
@@ -29307,7 +29307,7 @@
         <v>3926</v>
       </c>
       <c r="B247" t="n">
-        <v>130875</v>
+        <v>161618</v>
       </c>
       <c r="C247" t="s">
         <v>1779</v>
@@ -29368,7 +29368,7 @@
         <v>3926</v>
       </c>
       <c r="B248" t="n">
-        <v>130876</v>
+        <v>161619</v>
       </c>
       <c r="C248" t="s">
         <v>1785</v>
@@ -29433,7 +29433,7 @@
         <v>3926</v>
       </c>
       <c r="B249" t="n">
-        <v>130877</v>
+        <v>161620</v>
       </c>
       <c r="C249" t="s">
         <v>1792</v>
@@ -29498,7 +29498,7 @@
         <v>3926</v>
       </c>
       <c r="B250" t="n">
-        <v>130878</v>
+        <v>161621</v>
       </c>
       <c r="C250" t="s">
         <v>1798</v>
@@ -29559,7 +29559,7 @@
         <v>3926</v>
       </c>
       <c r="B251" t="n">
-        <v>130879</v>
+        <v>161622</v>
       </c>
       <c r="C251" t="s">
         <v>1804</v>
@@ -29752,7 +29752,7 @@
         <v>3926</v>
       </c>
       <c r="B254" t="n">
-        <v>130880</v>
+        <v>161623</v>
       </c>
       <c r="C254" t="s">
         <v>1823</v>
@@ -29819,7 +29819,7 @@
         <v>3926</v>
       </c>
       <c r="B255" t="n">
-        <v>130881</v>
+        <v>161624</v>
       </c>
       <c r="C255" t="s">
         <v>1829</v>
@@ -29886,7 +29886,7 @@
         <v>3926</v>
       </c>
       <c r="B256" t="n">
-        <v>130882</v>
+        <v>161625</v>
       </c>
       <c r="C256" t="s">
         <v>1834</v>
@@ -29953,7 +29953,7 @@
         <v>3926</v>
       </c>
       <c r="B257" t="n">
-        <v>130883</v>
+        <v>161626</v>
       </c>
       <c r="C257" t="s">
         <v>1841</v>
@@ -30020,7 +30020,7 @@
         <v>3926</v>
       </c>
       <c r="B258" t="n">
-        <v>130884</v>
+        <v>161627</v>
       </c>
       <c r="C258" t="s">
         <v>1848</v>
@@ -30087,7 +30087,7 @@
         <v>3926</v>
       </c>
       <c r="B259" t="n">
-        <v>130885</v>
+        <v>161628</v>
       </c>
       <c r="C259" t="s">
         <v>1854</v>
@@ -30213,7 +30213,7 @@
         <v>3926</v>
       </c>
       <c r="B261" t="n">
-        <v>130886</v>
+        <v>161629</v>
       </c>
       <c r="C261" t="s">
         <v>1868</v>
@@ -30270,7 +30270,7 @@
         <v>3926</v>
       </c>
       <c r="B262" t="n">
-        <v>130887</v>
+        <v>161630</v>
       </c>
       <c r="C262" t="s">
         <v>1874</v>
@@ -30335,7 +30335,7 @@
         <v>3926</v>
       </c>
       <c r="B263" t="n">
-        <v>130888</v>
+        <v>161631</v>
       </c>
       <c r="C263" t="s">
         <v>1880</v>
@@ -30534,7 +30534,7 @@
         <v>3926</v>
       </c>
       <c r="B266" t="n">
-        <v>130889</v>
+        <v>161632</v>
       </c>
       <c r="C266" t="s">
         <v>1899</v>
@@ -30664,7 +30664,7 @@
         <v>3926</v>
       </c>
       <c r="B268" t="n">
-        <v>130890</v>
+        <v>161633</v>
       </c>
       <c r="C268" t="s">
         <v>1911</v>
@@ -30725,7 +30725,7 @@
         <v>3926</v>
       </c>
       <c r="B269" t="n">
-        <v>130891</v>
+        <v>161634</v>
       </c>
       <c r="C269" t="s">
         <v>1917</v>
@@ -30918,7 +30918,7 @@
         <v>3926</v>
       </c>
       <c r="B272" t="n">
-        <v>130892</v>
+        <v>161635</v>
       </c>
       <c r="C272" t="s">
         <v>1938</v>
@@ -30985,7 +30985,7 @@
         <v>3926</v>
       </c>
       <c r="B273" t="n">
-        <v>130893</v>
+        <v>161636</v>
       </c>
       <c r="C273" t="s">
         <v>1945</v>
@@ -31050,7 +31050,7 @@
         <v>3926</v>
       </c>
       <c r="B274" t="n">
-        <v>130894</v>
+        <v>161637</v>
       </c>
       <c r="C274" t="s">
         <v>1951</v>
@@ -31117,7 +31117,7 @@
         <v>3926</v>
       </c>
       <c r="B275" t="n">
-        <v>130895</v>
+        <v>161638</v>
       </c>
       <c r="C275" t="s">
         <v>1957</v>
@@ -31184,7 +31184,7 @@
         <v>3926</v>
       </c>
       <c r="B276" t="n">
-        <v>130896</v>
+        <v>161639</v>
       </c>
       <c r="C276" t="s">
         <v>1964</v>
@@ -31251,7 +31251,7 @@
         <v>3926</v>
       </c>
       <c r="B277" t="n">
-        <v>130897</v>
+        <v>161640</v>
       </c>
       <c r="C277" t="s">
         <v>1969</v>
@@ -31318,7 +31318,7 @@
         <v>3926</v>
       </c>
       <c r="B278" t="n">
-        <v>130898</v>
+        <v>161641</v>
       </c>
       <c r="C278" t="s">
         <v>1976</v>
@@ -31389,7 +31389,7 @@
         <v>3926</v>
       </c>
       <c r="B279" t="n">
-        <v>130899</v>
+        <v>161642</v>
       </c>
       <c r="C279" t="s">
         <v>1982</v>
@@ -31456,7 +31456,7 @@
         <v>3926</v>
       </c>
       <c r="B280" t="n">
-        <v>130900</v>
+        <v>161643</v>
       </c>
       <c r="C280" t="s">
         <v>1989</v>
@@ -31523,7 +31523,7 @@
         <v>3926</v>
       </c>
       <c r="B281" t="n">
-        <v>130901</v>
+        <v>161644</v>
       </c>
       <c r="C281" t="s">
         <v>1995</v>
@@ -31588,7 +31588,7 @@
         <v>3926</v>
       </c>
       <c r="B282" t="n">
-        <v>130902</v>
+        <v>161645</v>
       </c>
       <c r="C282" t="s">
         <v>2002</v>
@@ -31649,7 +31649,7 @@
         <v>3926</v>
       </c>
       <c r="B283" t="n">
-        <v>130903</v>
+        <v>161646</v>
       </c>
       <c r="C283" t="s">
         <v>2009</v>
@@ -31781,7 +31781,7 @@
         <v>3926</v>
       </c>
       <c r="B285" t="n">
-        <v>130904</v>
+        <v>161647</v>
       </c>
       <c r="C285" t="s">
         <v>2022</v>
@@ -31848,7 +31848,7 @@
         <v>3926</v>
       </c>
       <c r="B286" t="n">
-        <v>130905</v>
+        <v>161648</v>
       </c>
       <c r="C286" t="s">
         <v>2028</v>
@@ -31980,7 +31980,7 @@
         <v>3926</v>
       </c>
       <c r="B288" t="n">
-        <v>130906</v>
+        <v>161649</v>
       </c>
       <c r="C288" t="s">
         <v>2040</v>
@@ -32047,7 +32047,7 @@
         <v>3926</v>
       </c>
       <c r="B289" t="n">
-        <v>130907</v>
+        <v>161650</v>
       </c>
       <c r="C289" t="s">
         <v>2046</v>
@@ -32112,7 +32112,7 @@
         <v>3926</v>
       </c>
       <c r="B290" t="n">
-        <v>130908</v>
+        <v>161651</v>
       </c>
       <c r="C290" t="s">
         <v>2053</v>
@@ -32179,7 +32179,7 @@
         <v>3926</v>
       </c>
       <c r="B291" t="n">
-        <v>130909</v>
+        <v>161652</v>
       </c>
       <c r="C291" t="s">
         <v>2061</v>
@@ -32439,7 +32439,7 @@
         <v>3926</v>
       </c>
       <c r="B295" t="n">
-        <v>130910</v>
+        <v>161653</v>
       </c>
       <c r="C295" t="s">
         <v>2087</v>
@@ -32563,7 +32563,7 @@
         <v>3926</v>
       </c>
       <c r="B297" t="n">
-        <v>130911</v>
+        <v>161654</v>
       </c>
       <c r="C297" t="s">
         <v>2100</v>
@@ -32630,7 +32630,7 @@
         <v>3926</v>
       </c>
       <c r="B298" t="n">
-        <v>130912</v>
+        <v>161655</v>
       </c>
       <c r="C298" t="s">
         <v>2105</v>
@@ -32764,7 +32764,7 @@
         <v>3926</v>
       </c>
       <c r="B300" t="n">
-        <v>130913</v>
+        <v>161656</v>
       </c>
       <c r="C300" t="s">
         <v>2119</v>
@@ -32831,7 +32831,7 @@
         <v>3926</v>
       </c>
       <c r="B301" t="n">
-        <v>130914</v>
+        <v>161657</v>
       </c>
       <c r="C301" t="s">
         <v>2127</v>
@@ -32892,7 +32892,7 @@
         <v>3926</v>
       </c>
       <c r="B302" t="n">
-        <v>130915</v>
+        <v>161658</v>
       </c>
       <c r="C302" t="s">
         <v>2134</v>
@@ -32959,7 +32959,7 @@
         <v>3926</v>
       </c>
       <c r="B303" t="n">
-        <v>130916</v>
+        <v>161659</v>
       </c>
       <c r="C303" t="s">
         <v>2141</v>
@@ -33024,7 +33024,7 @@
         <v>3926</v>
       </c>
       <c r="B304" t="n">
-        <v>130917</v>
+        <v>161660</v>
       </c>
       <c r="C304" t="s">
         <v>2149</v>
@@ -33081,7 +33081,7 @@
         <v>3926</v>
       </c>
       <c r="B305" t="n">
-        <v>130918</v>
+        <v>161661</v>
       </c>
       <c r="C305" t="s">
         <v>2154</v>
@@ -33213,7 +33213,7 @@
         <v>3926</v>
       </c>
       <c r="B307" t="n">
-        <v>130919</v>
+        <v>161662</v>
       </c>
       <c r="C307" t="s">
         <v>2167</v>
@@ -33284,7 +33284,7 @@
         <v>3926</v>
       </c>
       <c r="B308" t="n">
-        <v>130920</v>
+        <v>161663</v>
       </c>
       <c r="C308" t="s">
         <v>2173</v>
@@ -33568,7 +33568,7 @@
         <v>3926</v>
       </c>
       <c r="B312" t="n">
-        <v>130921</v>
+        <v>161664</v>
       </c>
       <c r="C312" t="s">
         <v>2201</v>
@@ -33639,7 +33639,7 @@
         <v>3926</v>
       </c>
       <c r="B313" t="n">
-        <v>130922</v>
+        <v>161665</v>
       </c>
       <c r="C313" t="s">
         <v>2208</v>
@@ -33714,7 +33714,7 @@
         <v>3926</v>
       </c>
       <c r="B314" t="n">
-        <v>130923</v>
+        <v>161666</v>
       </c>
       <c r="C314" t="s">
         <v>2214</v>
@@ -33785,7 +33785,7 @@
         <v>3926</v>
       </c>
       <c r="B315" t="n">
-        <v>130924</v>
+        <v>161667</v>
       </c>
       <c r="C315" t="s">
         <v>2220</v>
@@ -33856,7 +33856,7 @@
         <v>3926</v>
       </c>
       <c r="B316" t="n">
-        <v>130925</v>
+        <v>161668</v>
       </c>
       <c r="C316" t="s">
         <v>2226</v>
@@ -33917,7 +33917,7 @@
         <v>3926</v>
       </c>
       <c r="B317" t="n">
-        <v>130926</v>
+        <v>161669</v>
       </c>
       <c r="C317" t="s">
         <v>2232</v>
@@ -33988,7 +33988,7 @@
         <v>3926</v>
       </c>
       <c r="B318" t="n">
-        <v>130927</v>
+        <v>161670</v>
       </c>
       <c r="C318" t="s">
         <v>2239</v>
@@ -34130,7 +34130,7 @@
         <v>3926</v>
       </c>
       <c r="B320" t="n">
-        <v>130928</v>
+        <v>161671</v>
       </c>
       <c r="C320" t="s">
         <v>2252</v>
@@ -34191,7 +34191,7 @@
         <v>3926</v>
       </c>
       <c r="B321" t="n">
-        <v>130929</v>
+        <v>161672</v>
       </c>
       <c r="C321" t="s">
         <v>2259</v>
@@ -34333,7 +34333,7 @@
         <v>3926</v>
       </c>
       <c r="B323" t="n">
-        <v>130930</v>
+        <v>161673</v>
       </c>
       <c r="C323" t="s">
         <v>2273</v>
@@ -34479,7 +34479,7 @@
         <v>3926</v>
       </c>
       <c r="B325" t="n">
-        <v>130931</v>
+        <v>161674</v>
       </c>
       <c r="C325" t="s">
         <v>2288</v>
@@ -34546,7 +34546,7 @@
         <v>3926</v>
       </c>
       <c r="B326" t="n">
-        <v>130932</v>
+        <v>161675</v>
       </c>
       <c r="C326" t="s">
         <v>2295</v>
@@ -34621,7 +34621,7 @@
         <v>3926</v>
       </c>
       <c r="B327" t="n">
-        <v>130933</v>
+        <v>161676</v>
       </c>
       <c r="C327" t="s">
         <v>2302</v>
@@ -34696,7 +34696,7 @@
         <v>3926</v>
       </c>
       <c r="B328" t="n">
-        <v>130934</v>
+        <v>161677</v>
       </c>
       <c r="C328" t="s">
         <v>2309</v>
@@ -34769,7 +34769,7 @@
         <v>3926</v>
       </c>
       <c r="B329" t="n">
-        <v>130935</v>
+        <v>161678</v>
       </c>
       <c r="C329" t="s">
         <v>2317</v>
@@ -34844,7 +34844,7 @@
         <v>3926</v>
       </c>
       <c r="B330" t="n">
-        <v>130936</v>
+        <v>161679</v>
       </c>
       <c r="C330" t="s">
         <v>2326</v>
@@ -35136,7 +35136,7 @@
         <v>3926</v>
       </c>
       <c r="B334" t="n">
-        <v>130937</v>
+        <v>161680</v>
       </c>
       <c r="C334" t="s">
         <v>2354</v>
@@ -35432,7 +35432,7 @@
         <v>3926</v>
       </c>
       <c r="B338" t="n">
-        <v>130938</v>
+        <v>161681</v>
       </c>
       <c r="C338" t="s">
         <v>2390</v>
@@ -35503,7 +35503,7 @@
         <v>3926</v>
       </c>
       <c r="B339" t="n">
-        <v>130939</v>
+        <v>161682</v>
       </c>
       <c r="C339" t="s">
         <v>2396</v>
@@ -35578,7 +35578,7 @@
         <v>3926</v>
       </c>
       <c r="B340" t="n">
-        <v>130940</v>
+        <v>161683</v>
       </c>
       <c r="C340" t="s">
         <v>2405</v>
@@ -35649,7 +35649,7 @@
         <v>3926</v>
       </c>
       <c r="B341" t="n">
-        <v>130941</v>
+        <v>161684</v>
       </c>
       <c r="C341" t="s">
         <v>2411</v>
@@ -35799,7 +35799,7 @@
         <v>3926</v>
       </c>
       <c r="B343" t="n">
-        <v>130942</v>
+        <v>161685</v>
       </c>
       <c r="C343" t="s">
         <v>2425</v>
@@ -36010,7 +36010,7 @@
         <v>3926</v>
       </c>
       <c r="B346" t="n">
-        <v>130943</v>
+        <v>161686</v>
       </c>
       <c r="C346" t="s">
         <v>2449</v>
@@ -36160,7 +36160,7 @@
         <v>3926</v>
       </c>
       <c r="B348" t="n">
-        <v>130944</v>
+        <v>161687</v>
       </c>
       <c r="C348" t="s">
         <v>2467</v>
@@ -36235,7 +36235,7 @@
         <v>3926</v>
       </c>
       <c r="B349" t="n">
-        <v>130945</v>
+        <v>161688</v>
       </c>
       <c r="C349" t="s">
         <v>2476</v>
@@ -36385,7 +36385,7 @@
         <v>3926</v>
       </c>
       <c r="B351" t="n">
-        <v>130946</v>
+        <v>161689</v>
       </c>
       <c r="C351" t="s">
         <v>2494</v>
@@ -36456,7 +36456,7 @@
         <v>3926</v>
       </c>
       <c r="B352" t="n">
-        <v>130947</v>
+        <v>161690</v>
       </c>
       <c r="C352" t="s">
         <v>2500</v>
@@ -36602,7 +36602,7 @@
         <v>3926</v>
       </c>
       <c r="B354" t="n">
-        <v>130948</v>
+        <v>161691</v>
       </c>
       <c r="C354" t="s">
         <v>2511</v>
@@ -36744,7 +36744,7 @@
         <v>3926</v>
       </c>
       <c r="B356" t="n">
-        <v>130949</v>
+        <v>161692</v>
       </c>
       <c r="C356" t="s">
         <v>2523</v>
@@ -36888,7 +36888,7 @@
         <v>3926</v>
       </c>
       <c r="B358" t="n">
-        <v>130950</v>
+        <v>161693</v>
       </c>
       <c r="C358" t="s">
         <v>2537</v>
@@ -36963,7 +36963,7 @@
         <v>3926</v>
       </c>
       <c r="B359" t="n">
-        <v>130951</v>
+        <v>161694</v>
       </c>
       <c r="C359" t="s">
         <v>2546</v>
@@ -37034,7 +37034,7 @@
         <v>3926</v>
       </c>
       <c r="B360" t="n">
-        <v>130952</v>
+        <v>161695</v>
       </c>
       <c r="C360" t="s">
         <v>2553</v>
@@ -37109,7 +37109,7 @@
         <v>3926</v>
       </c>
       <c r="B361" t="n">
-        <v>130953</v>
+        <v>161696</v>
       </c>
       <c r="C361" t="s">
         <v>2560</v>
@@ -37251,7 +37251,7 @@
         <v>3926</v>
       </c>
       <c r="B363" t="n">
-        <v>130954</v>
+        <v>161697</v>
       </c>
       <c r="C363" t="s">
         <v>2576</v>
@@ -37326,7 +37326,7 @@
         <v>3926</v>
       </c>
       <c r="B364" t="n">
-        <v>130955</v>
+        <v>161698</v>
       </c>
       <c r="C364" t="s">
         <v>2586</v>
@@ -37397,7 +37397,7 @@
         <v>3926</v>
       </c>
       <c r="B365" t="n">
-        <v>130956</v>
+        <v>161699</v>
       </c>
       <c r="C365" t="s">
         <v>2592</v>
@@ -37472,7 +37472,7 @@
         <v>3926</v>
       </c>
       <c r="B366" t="n">
-        <v>130957</v>
+        <v>161700</v>
       </c>
       <c r="C366" t="s">
         <v>2601</v>
@@ -37547,7 +37547,7 @@
         <v>3926</v>
       </c>
       <c r="B367" t="n">
-        <v>130958</v>
+        <v>161701</v>
       </c>
       <c r="C367" t="s">
         <v>2608</v>
@@ -37689,7 +37689,7 @@
         <v>3926</v>
       </c>
       <c r="B369" t="n">
-        <v>130959</v>
+        <v>161702</v>
       </c>
       <c r="C369" t="s">
         <v>2624</v>
@@ -37839,7 +37839,7 @@
         <v>3926</v>
       </c>
       <c r="B371" t="n">
-        <v>130960</v>
+        <v>161703</v>
       </c>
       <c r="C371" t="s">
         <v>2637</v>
@@ -37910,7 +37910,7 @@
         <v>3926</v>
       </c>
       <c r="B372" t="n">
-        <v>130961</v>
+        <v>161704</v>
       </c>
       <c r="C372" t="s">
         <v>2644</v>
@@ -37981,7 +37981,7 @@
         <v>3926</v>
       </c>
       <c r="B373" t="n">
-        <v>130962</v>
+        <v>161705</v>
       </c>
       <c r="C373" t="s">
         <v>2651</v>
@@ -38052,7 +38052,7 @@
         <v>3926</v>
       </c>
       <c r="B374" t="n">
-        <v>130963</v>
+        <v>161706</v>
       </c>
       <c r="C374" t="s">
         <v>2658</v>
@@ -38127,7 +38127,7 @@
         <v>3926</v>
       </c>
       <c r="B375" t="n">
-        <v>130964</v>
+        <v>161707</v>
       </c>
       <c r="C375" t="s">
         <v>2668</v>
@@ -38202,7 +38202,7 @@
         <v>3926</v>
       </c>
       <c r="B376" t="n">
-        <v>130965</v>
+        <v>161708</v>
       </c>
       <c r="C376" t="s">
         <v>2675</v>
@@ -38427,7 +38427,7 @@
         <v>3926</v>
       </c>
       <c r="B379" t="n">
-        <v>130966</v>
+        <v>161709</v>
       </c>
       <c r="C379" t="s">
         <v>2699</v>
@@ -38498,7 +38498,7 @@
         <v>3926</v>
       </c>
       <c r="B380" t="n">
-        <v>130967</v>
+        <v>161710</v>
       </c>
       <c r="C380" t="s">
         <v>2706</v>
@@ -38723,7 +38723,7 @@
         <v>3926</v>
       </c>
       <c r="B383" t="n">
-        <v>130968</v>
+        <v>161711</v>
       </c>
       <c r="C383" t="s">
         <v>2730</v>
@@ -38798,7 +38798,7 @@
         <v>3926</v>
       </c>
       <c r="B384" t="n">
-        <v>130969</v>
+        <v>161712</v>
       </c>
       <c r="C384" t="s">
         <v>2739</v>
@@ -38948,7 +38948,7 @@
         <v>3926</v>
       </c>
       <c r="B386" t="n">
-        <v>130970</v>
+        <v>161713</v>
       </c>
       <c r="C386" t="s">
         <v>2751</v>
@@ -39094,7 +39094,7 @@
         <v>3926</v>
       </c>
       <c r="B388" t="n">
-        <v>130971</v>
+        <v>161714</v>
       </c>
       <c r="C388" t="s">
         <v>2768</v>
@@ -39167,7 +39167,7 @@
         <v>3926</v>
       </c>
       <c r="B389" t="n">
-        <v>130972</v>
+        <v>161715</v>
       </c>
       <c r="C389" t="s">
         <v>2774</v>
@@ -39313,7 +39313,7 @@
         <v>3926</v>
       </c>
       <c r="B391" t="n">
-        <v>130973</v>
+        <v>161716</v>
       </c>
       <c r="C391" t="s">
         <v>2789</v>
@@ -39384,7 +39384,7 @@
         <v>3926</v>
       </c>
       <c r="B392" t="n">
-        <v>130974</v>
+        <v>161717</v>
       </c>
       <c r="C392" t="s">
         <v>2796</v>
@@ -39455,7 +39455,7 @@
         <v>3926</v>
       </c>
       <c r="B393" t="n">
-        <v>130975</v>
+        <v>161718</v>
       </c>
       <c r="C393" t="s">
         <v>2802</v>
@@ -39526,7 +39526,7 @@
         <v>3926</v>
       </c>
       <c r="B394" t="n">
-        <v>130976</v>
+        <v>161719</v>
       </c>
       <c r="C394" t="s">
         <v>2807</v>
@@ -39593,7 +39593,7 @@
         <v>3926</v>
       </c>
       <c r="B395" t="n">
-        <v>130977</v>
+        <v>161720</v>
       </c>
       <c r="C395" t="s">
         <v>2814</v>
@@ -39664,7 +39664,7 @@
         <v>3926</v>
       </c>
       <c r="B396" t="n">
-        <v>130978</v>
+        <v>161721</v>
       </c>
       <c r="C396" t="s">
         <v>2821</v>
@@ -39731,7 +39731,7 @@
         <v>3926</v>
       </c>
       <c r="B397" t="n">
-        <v>130979</v>
+        <v>161722</v>
       </c>
       <c r="C397" t="s">
         <v>2828</v>
@@ -39867,7 +39867,7 @@
         <v>3926</v>
       </c>
       <c r="B399" t="n">
-        <v>130980</v>
+        <v>161723</v>
       </c>
       <c r="C399" t="s">
         <v>2842</v>
@@ -40009,7 +40009,7 @@
         <v>3926</v>
       </c>
       <c r="B401" t="n">
-        <v>130981</v>
+        <v>161724</v>
       </c>
       <c r="C401" t="s">
         <v>2856</v>
@@ -40080,7 +40080,7 @@
         <v>3926</v>
       </c>
       <c r="B402" t="n">
-        <v>130982</v>
+        <v>130826</v>
       </c>
       <c r="C402" t="s">
         <v>2864</v>
@@ -40147,7 +40147,7 @@
         <v>3926</v>
       </c>
       <c r="B403" t="n">
-        <v>130983</v>
+        <v>161725</v>
       </c>
       <c r="C403" t="s">
         <v>2871</v>
@@ -40218,7 +40218,7 @@
         <v>3926</v>
       </c>
       <c r="B404" t="n">
-        <v>130984</v>
+        <v>161726</v>
       </c>
       <c r="C404" t="s">
         <v>2878</v>
@@ -40356,7 +40356,7 @@
         <v>3926</v>
       </c>
       <c r="B406" t="n">
-        <v>130985</v>
+        <v>161727</v>
       </c>
       <c r="C406" t="s">
         <v>2891</v>
@@ -40427,7 +40427,7 @@
         <v>3926</v>
       </c>
       <c r="B407" t="n">
-        <v>130986</v>
+        <v>161728</v>
       </c>
       <c r="C407" t="s">
         <v>2898</v>
@@ -40498,7 +40498,7 @@
         <v>3926</v>
       </c>
       <c r="B408" t="n">
-        <v>130987</v>
+        <v>161729</v>
       </c>
       <c r="C408" t="s">
         <v>2905</v>
@@ -40565,7 +40565,7 @@
         <v>3926</v>
       </c>
       <c r="B409" t="n">
-        <v>130988</v>
+        <v>161730</v>
       </c>
       <c r="C409" t="s">
         <v>2911</v>
@@ -40632,7 +40632,7 @@
         <v>3926</v>
       </c>
       <c r="B410" t="n">
-        <v>130989</v>
+        <v>161731</v>
       </c>
       <c r="C410" t="s">
         <v>2916</v>
@@ -40703,7 +40703,7 @@
         <v>3926</v>
       </c>
       <c r="B411" t="n">
-        <v>130990</v>
+        <v>161732</v>
       </c>
       <c r="C411" t="s">
         <v>2923</v>
@@ -40778,7 +40778,7 @@
         <v>3926</v>
       </c>
       <c r="B412" t="n">
-        <v>130991</v>
+        <v>161733</v>
       </c>
       <c r="C412" t="s">
         <v>2932</v>
@@ -40853,7 +40853,7 @@
         <v>3926</v>
       </c>
       <c r="B413" t="n">
-        <v>130992</v>
+        <v>161734</v>
       </c>
       <c r="C413" t="s">
         <v>2939</v>
@@ -40924,7 +40924,7 @@
         <v>3926</v>
       </c>
       <c r="B414" t="n">
-        <v>130993</v>
+        <v>161735</v>
       </c>
       <c r="C414" t="s">
         <v>2946</v>
@@ -40991,7 +40991,7 @@
         <v>3926</v>
       </c>
       <c r="B415" t="n">
-        <v>130994</v>
+        <v>161736</v>
       </c>
       <c r="C415" t="s">
         <v>2952</v>
@@ -41052,7 +41052,7 @@
         <v>3926</v>
       </c>
       <c r="B416" t="n">
-        <v>130995</v>
+        <v>161737</v>
       </c>
       <c r="C416" t="s">
         <v>2959</v>
@@ -41127,7 +41127,7 @@
         <v>3926</v>
       </c>
       <c r="B417" t="n">
-        <v>130996</v>
+        <v>161738</v>
       </c>
       <c r="C417" t="s">
         <v>2969</v>
@@ -41202,7 +41202,7 @@
         <v>3926</v>
       </c>
       <c r="B418" t="n">
-        <v>130997</v>
+        <v>161739</v>
       </c>
       <c r="C418" t="s">
         <v>2975</v>
@@ -41277,7 +41277,7 @@
         <v>3926</v>
       </c>
       <c r="B419" t="n">
-        <v>130998</v>
+        <v>161740</v>
       </c>
       <c r="C419" t="s">
         <v>2984</v>
@@ -41427,7 +41427,7 @@
         <v>3926</v>
       </c>
       <c r="B421" t="n">
-        <v>130999</v>
+        <v>161741</v>
       </c>
       <c r="C421" t="s">
         <v>2999</v>
@@ -41577,7 +41577,7 @@
         <v>3926</v>
       </c>
       <c r="B423" t="n">
-        <v>131000</v>
+        <v>161742</v>
       </c>
       <c r="C423" t="s">
         <v>3015</v>
@@ -41652,7 +41652,7 @@
         <v>3926</v>
       </c>
       <c r="B424" t="n">
-        <v>131001</v>
+        <v>161743</v>
       </c>
       <c r="C424" t="s">
         <v>3024</v>
@@ -41723,7 +41723,7 @@
         <v>3926</v>
       </c>
       <c r="B425" t="n">
-        <v>130981</v>
+        <v>130826</v>
       </c>
       <c r="C425" t="s">
         <v>2864</v>
@@ -41794,7 +41794,7 @@
         <v>3926</v>
       </c>
       <c r="B426" t="n">
-        <v>131002</v>
+        <v>161744</v>
       </c>
       <c r="C426" t="s">
         <v>3041</v>
@@ -41869,7 +41869,7 @@
         <v>3926</v>
       </c>
       <c r="B427" t="n">
-        <v>131003</v>
+        <v>161745</v>
       </c>
       <c r="C427" t="s">
         <v>3050</v>
@@ -41940,7 +41940,7 @@
         <v>3926</v>
       </c>
       <c r="B428" t="n">
-        <v>131004</v>
+        <v>161746</v>
       </c>
       <c r="C428" t="s">
         <v>3059</v>
@@ -42015,7 +42015,7 @@
         <v>3926</v>
       </c>
       <c r="B429" t="n">
-        <v>131005</v>
+        <v>161747</v>
       </c>
       <c r="C429" t="s">
         <v>3069</v>
@@ -42090,7 +42090,7 @@
         <v>3926</v>
       </c>
       <c r="B430" t="n">
-        <v>131006</v>
+        <v>161748</v>
       </c>
       <c r="C430" t="s">
         <v>3077</v>
@@ -42161,7 +42161,7 @@
         <v>3926</v>
       </c>
       <c r="B431" t="n">
-        <v>131007</v>
+        <v>161749</v>
       </c>
       <c r="C431" t="s">
         <v>3084</v>
@@ -42236,7 +42236,7 @@
         <v>3926</v>
       </c>
       <c r="B432" t="n">
-        <v>131008</v>
+        <v>161750</v>
       </c>
       <c r="C432" t="s">
         <v>3093</v>
@@ -42386,7 +42386,7 @@
         <v>3926</v>
       </c>
       <c r="B434" t="n">
-        <v>131009</v>
+        <v>161751</v>
       </c>
       <c r="C434" t="s">
         <v>3112</v>
@@ -42461,7 +42461,7 @@
         <v>3926</v>
       </c>
       <c r="B435" t="n">
-        <v>131010</v>
+        <v>161752</v>
       </c>
       <c r="C435" t="s">
         <v>3122</v>
@@ -42611,7 +42611,7 @@
         <v>3926</v>
       </c>
       <c r="B437" t="n">
-        <v>131011</v>
+        <v>161753</v>
       </c>
       <c r="C437" t="s">
         <v>3138</v>
@@ -42676,7 +42676,7 @@
         <v>3926</v>
       </c>
       <c r="B438" t="n">
-        <v>131012</v>
+        <v>161754</v>
       </c>
       <c r="C438" t="s">
         <v>3147</v>
@@ -42901,7 +42901,7 @@
         <v>3926</v>
       </c>
       <c r="B441" t="n">
-        <v>131013</v>
+        <v>161755</v>
       </c>
       <c r="C441" t="s">
         <v>3174</v>
@@ -42976,7 +42976,7 @@
         <v>3926</v>
       </c>
       <c r="B442" t="n">
-        <v>131014</v>
+        <v>161756</v>
       </c>
       <c r="C442" t="s">
         <v>3184</v>
@@ -43122,7 +43122,7 @@
         <v>3926</v>
       </c>
       <c r="B444" t="n">
-        <v>131015</v>
+        <v>161757</v>
       </c>
       <c r="C444" t="s">
         <v>3202</v>
@@ -43197,7 +43197,7 @@
         <v>3926</v>
       </c>
       <c r="B445" t="n">
-        <v>131016</v>
+        <v>161758</v>
       </c>
       <c r="C445" t="s">
         <v>3209</v>
@@ -43272,7 +43272,7 @@
         <v>3926</v>
       </c>
       <c r="B446" t="n">
-        <v>131017</v>
+        <v>161759</v>
       </c>
       <c r="C446" t="s">
         <v>3218</v>
@@ -43347,7 +43347,7 @@
         <v>3926</v>
       </c>
       <c r="B447" t="n">
-        <v>131018</v>
+        <v>161760</v>
       </c>
       <c r="C447" t="s">
         <v>3228</v>
@@ -43572,7 +43572,7 @@
         <v>3926</v>
       </c>
       <c r="B450" t="n">
-        <v>131019</v>
+        <v>161761</v>
       </c>
       <c r="C450" t="s">
         <v>3253</v>
@@ -43637,7 +43637,7 @@
         <v>3926</v>
       </c>
       <c r="B451" t="n">
-        <v>131020</v>
+        <v>161762</v>
       </c>
       <c r="C451" t="s">
         <v>3263</v>
@@ -43712,7 +43712,7 @@
         <v>3926</v>
       </c>
       <c r="B452" t="n">
-        <v>131021</v>
+        <v>161763</v>
       </c>
       <c r="C452" t="s">
         <v>3272</v>
@@ -43852,7 +43852,7 @@
         <v>3926</v>
       </c>
       <c r="B454" t="n">
-        <v>131022</v>
+        <v>161764</v>
       </c>
       <c r="C454" t="s">
         <v>3291</v>
@@ -43923,7 +43923,7 @@
         <v>3926</v>
       </c>
       <c r="B455" t="n">
-        <v>131023</v>
+        <v>161765</v>
       </c>
       <c r="C455" t="s">
         <v>3299</v>
@@ -43998,7 +43998,7 @@
         <v>3926</v>
       </c>
       <c r="B456" t="n">
-        <v>131024</v>
+        <v>161766</v>
       </c>
       <c r="C456" t="s">
         <v>3309</v>
@@ -44073,7 +44073,7 @@
         <v>3926</v>
       </c>
       <c r="B457" t="n">
-        <v>131025</v>
+        <v>161767</v>
       </c>
       <c r="C457" t="s">
         <v>3317</v>
@@ -44144,7 +44144,7 @@
         <v>3926</v>
       </c>
       <c r="B458" t="n">
-        <v>131026</v>
+        <v>161768</v>
       </c>
       <c r="C458" t="s">
         <v>3326</v>
@@ -44219,7 +44219,7 @@
         <v>3926</v>
       </c>
       <c r="B459" t="n">
-        <v>131027</v>
+        <v>161769</v>
       </c>
       <c r="C459" t="s">
         <v>3335</v>
@@ -44294,7 +44294,7 @@
         <v>3926</v>
       </c>
       <c r="B460" t="n">
-        <v>131028</v>
+        <v>161770</v>
       </c>
       <c r="C460" t="s">
         <v>3342</v>
@@ -44365,7 +44365,7 @@
         <v>3926</v>
       </c>
       <c r="B461" t="n">
-        <v>131029</v>
+        <v>161771</v>
       </c>
       <c r="C461" t="s">
         <v>3349</v>
@@ -44440,7 +44440,7 @@
         <v>3926</v>
       </c>
       <c r="B462" t="n">
-        <v>131030</v>
+        <v>161772</v>
       </c>
       <c r="C462" t="s">
         <v>3359</v>
@@ -44515,7 +44515,7 @@
         <v>3926</v>
       </c>
       <c r="B463" t="n">
-        <v>131031</v>
+        <v>161773</v>
       </c>
       <c r="C463" t="s">
         <v>3368</v>
@@ -44590,7 +44590,7 @@
         <v>3926</v>
       </c>
       <c r="B464" t="n">
-        <v>131032</v>
+        <v>161774</v>
       </c>
       <c r="C464" t="s">
         <v>3377</v>
@@ -44657,7 +44657,7 @@
         <v>3926</v>
       </c>
       <c r="B465" t="n">
-        <v>131033</v>
+        <v>161775</v>
       </c>
       <c r="C465" t="s">
         <v>3383</v>
@@ -44728,7 +44728,7 @@
         <v>3926</v>
       </c>
       <c r="B466" t="n">
-        <v>131034</v>
+        <v>161776</v>
       </c>
       <c r="C466" t="s">
         <v>3392</v>
@@ -44799,7 +44799,7 @@
         <v>3926</v>
       </c>
       <c r="B467" t="n">
-        <v>131035</v>
+        <v>161777</v>
       </c>
       <c r="C467" t="s">
         <v>3400</v>
@@ -44864,7 +44864,7 @@
         <v>3926</v>
       </c>
       <c r="B468" t="n">
-        <v>131036</v>
+        <v>161778</v>
       </c>
       <c r="C468" t="s">
         <v>3409</v>
@@ -44935,7 +44935,7 @@
         <v>3926</v>
       </c>
       <c r="B469" t="n">
-        <v>131037</v>
+        <v>161779</v>
       </c>
       <c r="C469" t="s">
         <v>3418</v>
@@ -45006,7 +45006,7 @@
         <v>3926</v>
       </c>
       <c r="B470" t="n">
-        <v>131038</v>
+        <v>161780</v>
       </c>
       <c r="C470" t="s">
         <v>3428</v>
@@ -45077,7 +45077,7 @@
         <v>3926</v>
       </c>
       <c r="B471" t="n">
-        <v>131039</v>
+        <v>161781</v>
       </c>
       <c r="C471" t="s">
         <v>3437</v>
@@ -45148,7 +45148,7 @@
         <v>3926</v>
       </c>
       <c r="B472" t="n">
-        <v>131040</v>
+        <v>161782</v>
       </c>
       <c r="C472" t="s">
         <v>3443</v>
@@ -45219,7 +45219,7 @@
         <v>3926</v>
       </c>
       <c r="B473" t="n">
-        <v>131041</v>
+        <v>161783</v>
       </c>
       <c r="C473" t="s">
         <v>3453</v>
@@ -45294,7 +45294,7 @@
         <v>3926</v>
       </c>
       <c r="B474" t="n">
-        <v>131042</v>
+        <v>161784</v>
       </c>
       <c r="C474" t="s">
         <v>3463</v>
@@ -45369,7 +45369,7 @@
         <v>3926</v>
       </c>
       <c r="B475" t="n">
-        <v>131043</v>
+        <v>161785</v>
       </c>
       <c r="C475" t="s">
         <v>3473</v>
@@ -45444,7 +45444,7 @@
         <v>3926</v>
       </c>
       <c r="B476" t="n">
-        <v>131044</v>
+        <v>161786</v>
       </c>
       <c r="C476" t="s">
         <v>3482</v>
@@ -45519,7 +45519,7 @@
         <v>3926</v>
       </c>
       <c r="B477" t="n">
-        <v>131045</v>
+        <v>161787</v>
       </c>
       <c r="C477" t="s">
         <v>3491</v>
@@ -45669,7 +45669,7 @@
         <v>3926</v>
       </c>
       <c r="B479" t="n">
-        <v>131046</v>
+        <v>161788</v>
       </c>
       <c r="C479" t="s">
         <v>3507</v>
@@ -45744,7 +45744,7 @@
         <v>3926</v>
       </c>
       <c r="B480" t="n">
-        <v>131047</v>
+        <v>161789</v>
       </c>
       <c r="C480" t="s">
         <v>3516</v>
@@ -45815,7 +45815,7 @@
         <v>3926</v>
       </c>
       <c r="B481" t="n">
-        <v>131048</v>
+        <v>161790</v>
       </c>
       <c r="C481" t="s">
         <v>3522</v>
@@ -45886,7 +45886,7 @@
         <v>3926</v>
       </c>
       <c r="B482" t="n">
-        <v>131049</v>
+        <v>161791</v>
       </c>
       <c r="C482" t="s">
         <v>3529</v>
@@ -45961,7 +45961,7 @@
         <v>3926</v>
       </c>
       <c r="B483" t="n">
-        <v>131050</v>
+        <v>161792</v>
       </c>
       <c r="C483" t="s">
         <v>3539</v>
@@ -46036,7 +46036,7 @@
         <v>3926</v>
       </c>
       <c r="B484" t="n">
-        <v>131051</v>
+        <v>161793</v>
       </c>
       <c r="C484" t="s">
         <v>3546</v>
@@ -46107,7 +46107,7 @@
         <v>3926</v>
       </c>
       <c r="B485" t="n">
-        <v>131052</v>
+        <v>161794</v>
       </c>
       <c r="C485" t="s">
         <v>3553</v>
@@ -46178,7 +46178,7 @@
         <v>3926</v>
       </c>
       <c r="B486" t="n">
-        <v>131053</v>
+        <v>161795</v>
       </c>
       <c r="C486" t="s">
         <v>3560</v>
@@ -46249,7 +46249,7 @@
         <v>3926</v>
       </c>
       <c r="B487" t="n">
-        <v>131054</v>
+        <v>161796</v>
       </c>
       <c r="C487" t="s">
         <v>3568</v>
@@ -46320,7 +46320,7 @@
         <v>3926</v>
       </c>
       <c r="B488" t="n">
-        <v>131055</v>
+        <v>161797</v>
       </c>
       <c r="C488" t="s">
         <v>3575</v>
@@ -46391,7 +46391,7 @@
         <v>3926</v>
       </c>
       <c r="B489" t="n">
-        <v>131056</v>
+        <v>161798</v>
       </c>
       <c r="C489" t="s">
         <v>3582</v>
@@ -46458,7 +46458,7 @@
         <v>3926</v>
       </c>
       <c r="B490" t="n">
-        <v>131057</v>
+        <v>161799</v>
       </c>
       <c r="C490" t="s">
         <v>3589</v>
@@ -46529,7 +46529,7 @@
         <v>3926</v>
       </c>
       <c r="B491" t="n">
-        <v>131058</v>
+        <v>161800</v>
       </c>
       <c r="C491" t="s">
         <v>3597</v>
@@ -46600,7 +46600,7 @@
         <v>3926</v>
       </c>
       <c r="B492" t="n">
-        <v>131059</v>
+        <v>161801</v>
       </c>
       <c r="C492" t="s">
         <v>3605</v>
@@ -46675,7 +46675,7 @@
         <v>3926</v>
       </c>
       <c r="B493" t="n">
-        <v>131060</v>
+        <v>161802</v>
       </c>
       <c r="C493" t="s">
         <v>3615</v>
@@ -46750,7 +46750,7 @@
         <v>3926</v>
       </c>
       <c r="B494" t="n">
-        <v>131061</v>
+        <v>161803</v>
       </c>
       <c r="C494" t="s">
         <v>3622</v>
@@ -46821,7 +46821,7 @@
         <v>3926</v>
       </c>
       <c r="B495" t="n">
-        <v>131062</v>
+        <v>161804</v>
       </c>
       <c r="C495" t="s">
         <v>3629</v>
@@ -46896,7 +46896,7 @@
         <v>3926</v>
       </c>
       <c r="B496" t="n">
-        <v>131063</v>
+        <v>161805</v>
       </c>
       <c r="C496" t="s">
         <v>3636</v>
@@ -46971,7 +46971,7 @@
         <v>3926</v>
       </c>
       <c r="B497" t="n">
-        <v>131064</v>
+        <v>161806</v>
       </c>
       <c r="C497" t="s">
         <v>3645</v>
@@ -47042,7 +47042,7 @@
         <v>3926</v>
       </c>
       <c r="B498" t="n">
-        <v>131065</v>
+        <v>161807</v>
       </c>
       <c r="C498" t="s">
         <v>3654</v>
@@ -47117,7 +47117,7 @@
         <v>3926</v>
       </c>
       <c r="B499" t="n">
-        <v>131066</v>
+        <v>161808</v>
       </c>
       <c r="C499" t="s">
         <v>3662</v>
@@ -47192,7 +47192,7 @@
         <v>3926</v>
       </c>
       <c r="B500" t="n">
-        <v>131067</v>
+        <v>161809</v>
       </c>
       <c r="C500" t="s">
         <v>3669</v>
@@ -47267,7 +47267,7 @@
         <v>3926</v>
       </c>
       <c r="B501" t="n">
-        <v>131068</v>
+        <v>161810</v>
       </c>
       <c r="C501" t="s">
         <v>3676</v>
@@ -47342,7 +47342,7 @@
         <v>3926</v>
       </c>
       <c r="B502" t="n">
-        <v>131069</v>
+        <v>161811</v>
       </c>
       <c r="C502" t="s">
         <v>3684</v>
@@ -47417,7 +47417,7 @@
         <v>3926</v>
       </c>
       <c r="B503" t="n">
-        <v>131070</v>
+        <v>161812</v>
       </c>
       <c r="C503" t="s">
         <v>3691</v>
@@ -47492,7 +47492,7 @@
         <v>3926</v>
       </c>
       <c r="B504" t="n">
-        <v>131071</v>
+        <v>161813</v>
       </c>
       <c r="C504" t="s">
         <v>3701</v>
@@ -47567,7 +47567,7 @@
         <v>3926</v>
       </c>
       <c r="B505" t="n">
-        <v>131072</v>
+        <v>161814</v>
       </c>
       <c r="C505" t="s">
         <v>3708</v>
@@ -47638,7 +47638,7 @@
         <v>3926</v>
       </c>
       <c r="B506" t="n">
-        <v>131073</v>
+        <v>161815</v>
       </c>
       <c r="C506" t="s">
         <v>3714</v>
@@ -47709,7 +47709,7 @@
         <v>3926</v>
       </c>
       <c r="B507" t="n">
-        <v>131074</v>
+        <v>161816</v>
       </c>
       <c r="C507" t="s">
         <v>3721</v>
@@ -47776,7 +47776,7 @@
         <v>3926</v>
       </c>
       <c r="B508" t="n">
-        <v>131075</v>
+        <v>161817</v>
       </c>
       <c r="C508" t="s">
         <v>3727</v>
@@ -47847,7 +47847,7 @@
         <v>3926</v>
       </c>
       <c r="B509" t="n">
-        <v>131076</v>
+        <v>161818</v>
       </c>
       <c r="C509" t="s">
         <v>3734</v>
@@ -47918,7 +47918,7 @@
         <v>3926</v>
       </c>
       <c r="B510" t="n">
-        <v>131077</v>
+        <v>161819</v>
       </c>
       <c r="C510" t="s">
         <v>3741</v>
@@ -47989,7 +47989,7 @@
         <v>3926</v>
       </c>
       <c r="B511" t="n">
-        <v>131078</v>
+        <v>161820</v>
       </c>
       <c r="C511" t="s">
         <v>3748</v>
@@ -48060,7 +48060,7 @@
         <v>3926</v>
       </c>
       <c r="B512" t="n">
-        <v>131079</v>
+        <v>161821</v>
       </c>
       <c r="C512" t="s">
         <v>3755</v>
@@ -48131,7 +48131,7 @@
         <v>3926</v>
       </c>
       <c r="B513" t="n">
-        <v>131080</v>
+        <v>161822</v>
       </c>
       <c r="C513" t="s">
         <v>3762</v>
@@ -48273,7 +48273,7 @@
         <v>3926</v>
       </c>
       <c r="B515" t="n">
-        <v>131081</v>
+        <v>161823</v>
       </c>
       <c r="C515" t="s">
         <v>3776</v>
@@ -48344,7 +48344,7 @@
         <v>3926</v>
       </c>
       <c r="B516" t="n">
-        <v>131082</v>
+        <v>161824</v>
       </c>
       <c r="C516" t="s">
         <v>3784</v>
@@ -48415,7 +48415,7 @@
         <v>3926</v>
       </c>
       <c r="B517" t="n">
-        <v>131083</v>
+        <v>161825</v>
       </c>
       <c r="C517" t="s">
         <v>3791</v>
@@ -48486,7 +48486,7 @@
         <v>3926</v>
       </c>
       <c r="B518" t="n">
-        <v>131084</v>
+        <v>161826</v>
       </c>
       <c r="C518" t="s">
         <v>3798</v>
@@ -48553,7 +48553,7 @@
         <v>3926</v>
       </c>
       <c r="B519" t="n">
-        <v>131085</v>
+        <v>161827</v>
       </c>
       <c r="C519" t="s">
         <v>3804</v>
@@ -48624,7 +48624,7 @@
         <v>3926</v>
       </c>
       <c r="B520" t="n">
-        <v>131086</v>
+        <v>161828</v>
       </c>
       <c r="C520" t="s">
         <v>3812</v>
@@ -48695,7 +48695,7 @@
         <v>3926</v>
       </c>
       <c r="B521" t="n">
-        <v>131087</v>
+        <v>161829</v>
       </c>
       <c r="C521" t="s">
         <v>3820</v>
@@ -48766,7 +48766,7 @@
         <v>3926</v>
       </c>
       <c r="B522" t="n">
-        <v>131088</v>
+        <v>161830</v>
       </c>
       <c r="C522" t="s">
         <v>3827</v>
@@ -48837,7 +48837,7 @@
         <v>3926</v>
       </c>
       <c r="B523" t="n">
-        <v>131089</v>
+        <v>161831</v>
       </c>
       <c r="C523" t="s">
         <v>3832</v>
@@ -48902,7 +48902,7 @@
         <v>3926</v>
       </c>
       <c r="B524" t="n">
-        <v>131090</v>
+        <v>161832</v>
       </c>
       <c r="C524" t="s">
         <v>3839</v>
@@ -48959,7 +48959,7 @@
         <v>3926</v>
       </c>
       <c r="B525" t="n">
-        <v>131091</v>
+        <v>161833</v>
       </c>
       <c r="C525" t="s">
         <v>3845</v>
@@ -49016,7 +49016,7 @@
         <v>3926</v>
       </c>
       <c r="B526" t="n">
-        <v>131092</v>
+        <v>161834</v>
       </c>
       <c r="C526" t="s">
         <v>3851</v>
@@ -49087,7 +49087,7 @@
         <v>3926</v>
       </c>
       <c r="B527" t="n">
-        <v>131093</v>
+        <v>161835</v>
       </c>
       <c r="C527" t="s">
         <v>3859</v>
@@ -49156,7 +49156,7 @@
         <v>3926</v>
       </c>
       <c r="B528" t="n">
-        <v>131094</v>
+        <v>161836</v>
       </c>
       <c r="C528" t="s">
         <v>3867</v>
@@ -49227,7 +49227,7 @@
         <v>3926</v>
       </c>
       <c r="B529" t="n">
-        <v>131095</v>
+        <v>161837</v>
       </c>
       <c r="C529" t="s">
         <v>3875</v>
@@ -49298,7 +49298,7 @@
         <v>3926</v>
       </c>
       <c r="B530" t="n">
-        <v>131096</v>
+        <v>161838</v>
       </c>
       <c r="C530" t="s">
         <v>3882</v>
@@ -49367,7 +49367,7 @@
         <v>3926</v>
       </c>
       <c r="B531" t="n">
-        <v>131097</v>
+        <v>161839</v>
       </c>
       <c r="C531" t="s">
         <v>3889</v>
@@ -49438,7 +49438,7 @@
         <v>3926</v>
       </c>
       <c r="B532" t="n">
-        <v>131098</v>
+        <v>161840</v>
       </c>
       <c r="C532" t="s">
         <v>3895</v>
@@ -49507,7 +49507,7 @@
         <v>3926</v>
       </c>
       <c r="B533" t="n">
-        <v>131099</v>
+        <v>161841</v>
       </c>
       <c r="C533" t="s">
         <v>3903</v>
@@ -49578,7 +49578,7 @@
         <v>3926</v>
       </c>
       <c r="B534" t="n">
-        <v>131100</v>
+        <v>161842</v>
       </c>
       <c r="C534" t="s">
         <v>3911</v>
@@ -49649,7 +49649,7 @@
         <v>3926</v>
       </c>
       <c r="B535" t="n">
-        <v>131101</v>
+        <v>161843</v>
       </c>
       <c r="C535" t="s">
         <v>3919</v>
@@ -49720,7 +49720,7 @@
         <v>3926</v>
       </c>
       <c r="B536" t="n">
-        <v>131102</v>
+        <v>161844</v>
       </c>
       <c r="C536" t="s">
         <v>3925</v>
@@ -49791,7 +49791,7 @@
         <v>3926</v>
       </c>
       <c r="B537" t="n">
-        <v>131103</v>
+        <v>161845</v>
       </c>
       <c r="C537" t="s">
         <v>3932</v>
@@ -49862,7 +49862,7 @@
         <v>3926</v>
       </c>
       <c r="B538" t="n">
-        <v>131104</v>
+        <v>161846</v>
       </c>
       <c r="C538" t="s">
         <v>3939</v>
@@ -49933,7 +49933,7 @@
         <v>3926</v>
       </c>
       <c r="B539" t="n">
-        <v>131105</v>
+        <v>161847</v>
       </c>
       <c r="C539" t="s">
         <v>3947</v>
@@ -50004,7 +50004,7 @@
         <v>3926</v>
       </c>
       <c r="B540" t="n">
-        <v>131106</v>
+        <v>161848</v>
       </c>
       <c r="C540" t="s">
         <v>3955</v>
@@ -50066,7 +50066,7 @@
         <v>3926</v>
       </c>
       <c r="B541" t="n">
-        <v>131107</v>
+        <v>161849</v>
       </c>
       <c r="C541" t="s">
         <v>3960</v>
@@ -50135,7 +50135,7 @@
         <v>3926</v>
       </c>
       <c r="B542" t="n">
-        <v>131108</v>
+        <v>161850</v>
       </c>
       <c r="C542" t="s">
         <v>3966</v>
@@ -50200,7 +50200,7 @@
         <v>3926</v>
       </c>
       <c r="B543" t="n">
-        <v>131109</v>
+        <v>161851</v>
       </c>
       <c r="C543" t="s">
         <v>3973</v>
@@ -50256,7 +50256,7 @@
         <v>3926</v>
       </c>
       <c r="B544" t="n">
-        <v>131110</v>
+        <v>161852</v>
       </c>
       <c r="C544" t="s">
         <v>3977</v>
@@ -50386,7 +50386,7 @@
         <v>3926</v>
       </c>
       <c r="B546" t="n">
-        <v>131111</v>
+        <v>161853</v>
       </c>
       <c r="C546" t="s">
         <v>3991</v>
@@ -50451,7 +50451,7 @@
         <v>3926</v>
       </c>
       <c r="B547" t="n">
-        <v>131112</v>
+        <v>161854</v>
       </c>
       <c r="C547" t="s">
         <v>3998</v>
@@ -50508,7 +50508,7 @@
         <v>3926</v>
       </c>
       <c r="B548" t="n">
-        <v>131113</v>
+        <v>161855</v>
       </c>
       <c r="C548" t="s">
         <v>4005</v>
@@ -50573,7 +50573,7 @@
         <v>3926</v>
       </c>
       <c r="B549" t="n">
-        <v>131114</v>
+        <v>161856</v>
       </c>
       <c r="C549" t="s">
         <v>4011</v>
@@ -50817,7 +50817,7 @@
         <v>3926</v>
       </c>
       <c r="B553" t="n">
-        <v>131115</v>
+        <v>161857</v>
       </c>
       <c r="C553" t="s">
         <v>4037</v>
@@ -50931,7 +50931,7 @@
         <v>3926</v>
       </c>
       <c r="B555" t="n">
-        <v>131116</v>
+        <v>161858</v>
       </c>
       <c r="C555" t="s">
         <v>4049</v>
